--- a/reoptjl/ITA_report.xlsx
+++ b/reoptjl/ITA_report.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpulluta/REopt_API/reoptjl/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCCD47-552E-A049-993B-6DA8CC3FE89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITA Report Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>Scenario</t>
   </si>
@@ -160,20 +180,26 @@
     <t>NPV</t>
   </si>
   <si>
+    <t>***Note***</t>
+  </si>
+  <si>
     <t>BAU</t>
   </si>
   <si>
-    <t>b620d505-3891-47e4-9be2-b7f150a6dd82</t>
-  </si>
-  <si>
-    <t>9e7b3977-f3a0-4d2b-b371-392e34b34c50</t>
+    <t>Yellow cells are calculated, do not enter any values!</t>
+  </si>
+  <si>
+    <t>4043a50f-52b9-482a-90dd-8f7ea417182a</t>
+  </si>
+  <si>
+    <t>3ccb973a-e9ed-405e-bb41-4fcb0f4bb9a5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,16 +207,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,25 +251,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +339,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -288,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -322,9 +408,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,451 +584,1225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:AW4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="48" width="40.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:49" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
-      <c r="A2" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="O2">
-        <v>100000</v>
-      </c>
-      <c r="P2">
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>7752817</v>
+      </c>
+      <c r="P2" s="3">
         <f>G2+J2+M2+O2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
+        <v>7752817</v>
+      </c>
+      <c r="Q2" s="3">
         <f>(O2-O2)/O2</f>
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>9893.91</v>
-      </c>
-      <c r="S2">
-        <v>7689.5</v>
-      </c>
-      <c r="T2">
-        <v>1600</v>
-      </c>
-      <c r="U2">
+      <c r="R2" s="2">
+        <v>1139796.6299999999</v>
+      </c>
+      <c r="S2" s="2">
+        <v>960053.12</v>
+      </c>
+      <c r="T2" s="2">
+        <v>41015</v>
+      </c>
+      <c r="U2" s="3">
         <f>R2+S2+T2</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
+        <v>2140864.75</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3">
         <f>U2-V2</f>
-        <v>0</v>
-      </c>
-      <c r="X2">
+        <v>2140864.75</v>
+      </c>
+      <c r="X2" s="3">
         <f>W2-W2</f>
         <v>0</v>
       </c>
-      <c r="AA2">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="3">
         <f>Y2+Z2</f>
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="3" t="e">
         <f>(AA2-AA2)/AA2</f>
-        <v>0</v>
-      </c>
-      <c r="AE2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="3">
         <f>AC2+AD2</f>
         <v>0</v>
       </c>
-      <c r="AH2">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3">
         <f>AF2+AG2</f>
         <v>0</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="3">
         <f>W2+AH2</f>
-        <v>0</v>
-      </c>
-      <c r="AO2">
+        <v>2140864.75</v>
+      </c>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="3">
         <f>AM2*AL2+AN2</f>
         <v>0</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="3">
         <f>AL2-AO2</f>
         <v>0</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="3">
         <f>AI2-AI2+AJ2</f>
         <v>0</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="3" t="e">
         <f>AP2/AQ2</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>4.2</v>
-      </c>
-      <c r="AT2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>774.42439999999999</v>
+      </c>
+      <c r="AT2" s="3">
         <f>AS2-AS2</f>
         <v>0</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="3">
         <f>(AS2-AS2)/AS2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:48">
-      <c r="A3" t="s">
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2837.2370000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>583.38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>273.9314307384833</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4244701.21</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>2935677.7379999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1285854</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>997809.85200000391</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1699558.091</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>1601873.0210001499</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4482.1550600000137</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1137496.1299999999</v>
+      </c>
+      <c r="P3" s="3">
+        <f>G3+J3+M3+O3</f>
+        <v>6672856.7410001531</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>(O2-O3)/O2</f>
+        <v>0.85327963629220194</v>
+      </c>
+      <c r="R3" s="2">
+        <v>164899.78</v>
+      </c>
+      <c r="S3" s="2">
+        <v>250070.6</v>
+      </c>
+      <c r="T3" s="2">
+        <v>41015</v>
+      </c>
+      <c r="U3" s="3">
+        <f>R3+S3+T3</f>
+        <v>455985.38</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="3">
+        <f>U3-V3</f>
+        <v>455985.38</v>
+      </c>
+      <c r="X3" s="3">
+        <f>W2-W3</f>
+        <v>1684879.37</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2">
+        <v>18586.964</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>Y3+Z3</f>
+        <v>18586.964</v>
+      </c>
+      <c r="AB3" s="3" t="e">
+        <f>(AA2-AA3)/AA2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2">
+        <v>4482.1549999999997</v>
+      </c>
+      <c r="AE3" s="3">
+        <f>AC3+AD3</f>
+        <v>4482.1549999999997</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2">
+        <v>167282.68</v>
+      </c>
+      <c r="AH3" s="3">
+        <f>AF3+AG3</f>
+        <v>167282.68</v>
+      </c>
+      <c r="AI3" s="3">
+        <f>W3+AH3</f>
+        <v>623268.06000000006</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>2124223.3731</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>4.91</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>6822641.6496000001</v>
+      </c>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="3">
+        <f>AM3*AL3+AN3</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3">
+        <f>AL3-AO3</f>
+        <v>6822641.6496000001</v>
+      </c>
+      <c r="AQ3" s="3">
+        <f>AI2-AI3+AJ3</f>
+        <v>3641820.0630999999</v>
+      </c>
+      <c r="AR3" s="3">
+        <f>AP3/AQ3</f>
+        <v>1.8734153613818065</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>1204.2116000000001</v>
+      </c>
+      <c r="AT3" s="3">
+        <f>AS2-AS3</f>
+        <v>-429.7872000000001</v>
+      </c>
+      <c r="AU3" s="3">
+        <f>(AS2-AS3)/AS2</f>
+        <v>-0.55497631531237923</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>8905826.9100000001</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3293.6635000000001</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>273.9314307384833</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4927546.1399999997</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>3247900.461000002</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>1797415.524</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>1715978.7620001901</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4424.0631300000177</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1709342.09</v>
+      </c>
+      <c r="P4" s="3">
+        <f>G4+J4+M4+O4</f>
+        <v>6673221.3130001919</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>(O2-O4)/O2</f>
+        <v>0.77951987129323441</v>
+      </c>
+      <c r="R4" s="2">
+        <v>248173.27</v>
+      </c>
+      <c r="S4" s="2">
+        <v>297813.53999999998</v>
+      </c>
+      <c r="T4" s="2">
+        <v>41015</v>
+      </c>
+      <c r="U4" s="3">
+        <f>R4+S4+T4</f>
+        <v>587001.80999999994</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="3">
+        <f>U4-V4</f>
+        <v>587001.80999999994</v>
+      </c>
+      <c r="X4" s="3">
+        <f>W2-W4</f>
+        <v>1553862.94</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2">
+        <v>19657.168000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>Y4+Z4</f>
+        <v>19657.168000000001</v>
+      </c>
+      <c r="AB4" s="3" t="e">
+        <f>(AA2-AA4)/AA2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2">
+        <v>4424.0630000000001</v>
+      </c>
+      <c r="AE4" s="3">
+        <f>AC4+AD4</f>
+        <v>4424.0630000000001</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2">
+        <v>176914.51</v>
+      </c>
+      <c r="AH4" s="3">
+        <f>AF4+AG4</f>
+        <v>176914.51</v>
+      </c>
+      <c r="AI4" s="3">
+        <f>W4+AH4</f>
+        <v>763916.32</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>2019819.9387000001</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>5861847.6711999997</v>
+      </c>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="3">
+        <f>AM4*AL4+AN4</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3">
+        <f>AL4-AO4</f>
+        <v>5861847.6711999997</v>
+      </c>
+      <c r="AQ4" s="3">
+        <f>AI2-AI4+AJ4</f>
+        <v>3396768.3687000005</v>
+      </c>
+      <c r="AR4" s="3">
+        <f>AP4/AQ4</f>
+        <v>1.7257130999024894</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>1304.7108000000001</v>
+      </c>
+      <c r="AT4" s="3">
+        <f>AS2-AS4</f>
+        <v>-530.28640000000007</v>
+      </c>
+      <c r="AU4" s="3">
+        <f>(AS2-AS4)/AS2</f>
+        <v>-0.68474908590173567</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>8458588.1500000004</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1376013-DEB1-FD47-919B-AE4BD3E1E4E2}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3">
-        <v>32.8409</v>
-      </c>
-      <c r="E3">
-        <v>58151.95</v>
-      </c>
-      <c r="G3">
-        <v>52959.01199999992</v>
-      </c>
-      <c r="O3">
-        <v>47041</v>
-      </c>
-      <c r="P3">
-        <f>G3+J3+M3+O3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>(O2-O3)/O2</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>4587.02</v>
-      </c>
-      <c r="S3">
-        <v>6340.71</v>
-      </c>
-      <c r="T3">
-        <v>1600</v>
-      </c>
-      <c r="U3">
-        <f>R3+S3+T3</f>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f>U3-V3</f>
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <f>W2-W3</f>
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <f>Y3+Z3</f>
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <f>(AA2-AA3)/AA2</f>
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <f>AC3+AD3</f>
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <f>AF3+AG3</f>
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <f>W3+AH3</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>4913.1585</v>
-      </c>
-      <c r="AK3">
-        <v>5.42</v>
-      </c>
-      <c r="AL3">
-        <v>24182.6258</v>
-      </c>
-      <c r="AO3">
-        <f>AM3*AL3+AN3</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>AL3-AO3</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <f>AI2-AI3+AJ3</f>
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <f>AP3/AQ3</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>3.309</v>
-      </c>
-      <c r="AT3">
-        <f>AS2-AS3</f>
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <f>(AS2-AS3)/AS2</f>
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>26725.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48">
-      <c r="A4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>2837.2370000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3293.6635000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>583.38</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>273.9314307384833</v>
+      </c>
+      <c r="D4" s="2">
+        <v>273.9314307384833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>4244701.21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4927546.1399999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>2935677.7379999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3247900.461000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>1285854</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>997809.85200000391</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>1699558.091</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1797415.524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>1601873.0210001499</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1715978.7620001901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>4482.1550600000137</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4424.0631300000177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7752817</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1137496.1299999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1709342.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B7+B10+B13+B15</f>
+        <v>7752817</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C7+C10+C13+C15</f>
+        <v>6672856.7410001531</v>
+      </c>
+      <c r="D16" s="3">
+        <f>D7+D10+D13+D15</f>
+        <v>6673221.3130001919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <f>(B15-B15)/B15</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <f>(B15-C15)/B15</f>
+        <v>0.85327963629220194</v>
+      </c>
+      <c r="D17" s="3">
+        <f>(B15-D15)/B15</f>
+        <v>0.77951987129323441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1139796.6299999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>164899.78</v>
+      </c>
+      <c r="D18" s="2">
+        <v>248173.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>960053.12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>250070.6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>297813.53999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>41015</v>
+      </c>
+      <c r="C20" s="2">
+        <v>41015</v>
+      </c>
+      <c r="D20" s="2">
+        <v>41015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B18+B19+B20</f>
+        <v>2140864.75</v>
+      </c>
+      <c r="C21" s="3">
+        <f>C18+C19+C20</f>
+        <v>455985.38</v>
+      </c>
+      <c r="D21" s="3">
+        <f>D18+D19+D20</f>
+        <v>587001.80999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B21-B22</f>
+        <v>2140864.75</v>
+      </c>
+      <c r="C23" s="3">
+        <f>C21-C22</f>
+        <v>455985.38</v>
+      </c>
+      <c r="D23" s="3">
+        <f>D21-D22</f>
+        <v>587001.80999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B23-B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <f>B23-C23</f>
+        <v>1684879.37</v>
+      </c>
+      <c r="D24" s="3">
+        <f>B23-D23</f>
+        <v>1553862.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
+        <v>18586.964</v>
+      </c>
+      <c r="D26" s="2">
+        <v>19657.168000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B25+B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <f>C25+C26</f>
+        <v>18586.964</v>
+      </c>
+      <c r="D27" s="3">
+        <f>D25+D26</f>
+        <v>19657.168000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="e">
+        <f>(B27-B27)/B27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" s="3" t="e">
+        <f>(B27-C27)/B27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="3" t="e">
+        <f>(B27-D27)/B27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
+        <v>4482.1549999999997</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4424.0630000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B29+B30</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <f>C29+C30</f>
+        <v>4482.1549999999997</v>
+      </c>
+      <c r="D31" s="3">
+        <f>D29+D30</f>
+        <v>4424.0630000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
+        <v>167282.68</v>
+      </c>
+      <c r="D33" s="2">
+        <v>176914.51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B32+B33</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <f>C32+C33</f>
+        <v>167282.68</v>
+      </c>
+      <c r="D34" s="3">
+        <f>D32+D33</f>
+        <v>176914.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B23+B34</f>
+        <v>2140864.75</v>
+      </c>
+      <c r="C35" s="3">
+        <f>C23+C34</f>
+        <v>623268.06000000006</v>
+      </c>
+      <c r="D35" s="3">
+        <f>D23+D34</f>
+        <v>763916.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
+        <v>2124223.3731</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2019819.9387000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
+        <v>4.91</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
+        <v>6822641.6496000001</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5861847.6711999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B39*B38+B40</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <f>C39*C38+C40</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <f>D39*D38+D40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B38-B41</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <f>C38-C41</f>
+        <v>6822641.6496000001</v>
+      </c>
+      <c r="D42" s="3">
+        <f>D38-D41</f>
+        <v>5861847.6711999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B35-B35+B36</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <f>B35-C35+C36</f>
+        <v>3641820.0630999999</v>
+      </c>
+      <c r="D43" s="3">
+        <f>B35-D35+D36</f>
+        <v>3396768.3687000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="e">
+        <f>B42/B43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C44" s="3">
+        <f>C42/C43</f>
+        <v>1.8734153613818065</v>
+      </c>
+      <c r="D44" s="3">
+        <f>D42/D43</f>
+        <v>1.7257130999024894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>774.42439999999999</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1204.2116000000001</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1304.7108000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B45-B45</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <f>B45-C45</f>
+        <v>-429.7872000000001</v>
+      </c>
+      <c r="D46" s="3">
+        <f>B45-D45</f>
+        <v>-530.28640000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <f>(B45-B45)/B45</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <f>(B45-C45)/B45</f>
+        <v>-0.55497631531237923</v>
+      </c>
+      <c r="D47" s="3">
+        <f>(B45-D45)/B45</f>
+        <v>-0.68474908590173567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2">
+        <v>8905826.9100000001</v>
+      </c>
+      <c r="D48" s="2">
+        <v>8458588.1500000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4">
-        <v>45.2187</v>
-      </c>
-      <c r="E4">
-        <v>80069.28</v>
-      </c>
-      <c r="G4">
-        <v>59921.10999999981</v>
-      </c>
-      <c r="O4">
-        <v>26455.65</v>
-      </c>
-      <c r="P4">
-        <f>G4+J4+M4+O4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>(O2-O4)/O2</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>2441.63</v>
-      </c>
-      <c r="S4">
-        <v>2702.23</v>
-      </c>
-      <c r="T4">
-        <v>1600</v>
-      </c>
-      <c r="U4">
-        <f>R4+S4+T4</f>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f>U4-V4</f>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f>W2-W4</f>
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <f>Y4+Z4</f>
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <f>(AA2-AA4)/AA2</f>
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <f>AC4+AD4</f>
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <f>AF4+AG4</f>
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <f>W4+AH4</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>16533.8295</v>
-      </c>
-      <c r="AK4">
-        <v>5.9</v>
-      </c>
-      <c r="AL4">
-        <v>60465.457</v>
-      </c>
-      <c r="AO4">
-        <f>AM4*AL4+AN4</f>
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <f>AL4-AO4</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <f>AI2-AI4+AJ4</f>
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <f>AP4/AQ4</f>
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>2.353</v>
-      </c>
-      <c r="AT4">
-        <f>AS2-AS4</f>
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <f>(AS2-AS4)/AS2</f>
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>37100.54</v>
+      <c r="C49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
